--- a/data_year/zb/对外经济贸易/按行业分对外直接投资/截至本年对外直接投资存量.xlsx
+++ b/data_year/zb/对外经济贸易/按行业分对外直接投资/截至本年对外直接投资存量.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U14"/>
+  <dimension ref="A1:U13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -538,848 +538,783 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>2008年</t>
+          <t>2010年</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1452002</v>
+        <v>2318780</v>
       </c>
       <c r="C2" t="n">
-        <v>13669</v>
+        <v>44986</v>
       </c>
       <c r="D2" t="n">
-        <v>166696</v>
+        <v>840624</v>
       </c>
       <c r="E2" t="inlineStr"/>
       <c r="F2" t="n">
-        <v>146762</v>
+        <v>261208</v>
       </c>
       <c r="G2" t="n">
-        <v>966188</v>
+        <v>1780166</v>
       </c>
       <c r="H2" t="n">
-        <v>369</v>
+        <v>3616</v>
       </c>
       <c r="I2" t="n">
-        <v>71468</v>
+        <v>322974</v>
       </c>
       <c r="J2" t="n">
-        <v>268070</v>
+        <v>617328</v>
       </c>
       <c r="K2" t="n">
-        <v>18397071</v>
+        <v>31721059</v>
       </c>
       <c r="L2" t="n">
-        <v>409814</v>
+        <v>726642</v>
       </c>
       <c r="M2" t="n">
-        <v>2985866</v>
+        <v>4200645</v>
       </c>
       <c r="N2" t="n">
-        <v>1749</v>
+        <v>2394</v>
       </c>
       <c r="O2" t="n">
-        <v>10733</v>
+        <v>34583</v>
       </c>
       <c r="P2" t="n">
-        <v>106289</v>
+        <v>113343</v>
       </c>
       <c r="Q2" t="n">
-        <v>184676</v>
+        <v>341068</v>
       </c>
       <c r="R2" t="n">
-        <v>198189</v>
+        <v>396712</v>
       </c>
       <c r="S2" t="n">
-        <v>5458303</v>
+        <v>9724605</v>
       </c>
       <c r="T2" t="n">
-        <v>2286840</v>
+        <v>4466064</v>
       </c>
       <c r="U2" t="n">
-        <v>3669388</v>
+        <v>5525321</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>2009年</t>
+          <t>2011年</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1663133</v>
+        <v>2526131</v>
       </c>
       <c r="C3" t="n">
-        <v>24329</v>
+        <v>60386</v>
       </c>
       <c r="D3" t="n">
-        <v>196724</v>
+        <v>955324</v>
       </c>
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="n">
-        <v>202844</v>
+        <v>341664</v>
       </c>
       <c r="G3" t="n">
-        <v>1359155</v>
+        <v>2696443</v>
       </c>
       <c r="H3" t="n">
-        <v>610</v>
+        <v>1715</v>
       </c>
       <c r="I3" t="n">
-        <v>96137</v>
+        <v>161558</v>
       </c>
       <c r="J3" t="n">
-        <v>341322</v>
+        <v>805110</v>
       </c>
       <c r="K3" t="n">
-        <v>24575538</v>
+        <v>42478067</v>
       </c>
       <c r="L3" t="n">
-        <v>534343</v>
+        <v>898616</v>
       </c>
       <c r="M3" t="n">
-        <v>3569499</v>
+        <v>4909363</v>
       </c>
       <c r="N3" t="n">
-        <v>2123</v>
+        <v>6657</v>
       </c>
       <c r="O3" t="n">
-        <v>13565</v>
+        <v>54142</v>
       </c>
       <c r="P3" t="n">
-        <v>106508</v>
+        <v>240196</v>
       </c>
       <c r="Q3" t="n">
-        <v>225561</v>
+        <v>714056</v>
       </c>
       <c r="R3" t="n">
-        <v>287413</v>
+        <v>438838</v>
       </c>
       <c r="S3" t="n">
-        <v>7294900</v>
+        <v>14229002</v>
       </c>
       <c r="T3" t="n">
-        <v>4057969</v>
+        <v>6699537</v>
       </c>
       <c r="U3" t="n">
-        <v>4599403</v>
+        <v>6739329</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>2010年</t>
+          <t>2012年</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2318780</v>
+        <v>2922653</v>
       </c>
       <c r="C4" t="n">
-        <v>44986</v>
+        <v>76327</v>
       </c>
       <c r="D4" t="n">
-        <v>840624</v>
+        <v>481971</v>
       </c>
       <c r="E4" t="inlineStr"/>
       <c r="F4" t="n">
-        <v>261208</v>
+        <v>496443</v>
       </c>
       <c r="G4" t="n">
-        <v>1780166</v>
+        <v>3414007</v>
       </c>
       <c r="H4" t="n">
-        <v>3616</v>
+        <v>4676</v>
       </c>
       <c r="I4" t="n">
-        <v>322974</v>
+        <v>358124</v>
       </c>
       <c r="J4" t="n">
-        <v>617328</v>
+        <v>1285604</v>
       </c>
       <c r="K4" t="n">
-        <v>31721059</v>
+        <v>53194058</v>
       </c>
       <c r="L4" t="n">
-        <v>726642</v>
+        <v>958141</v>
       </c>
       <c r="M4" t="n">
-        <v>4200645</v>
+        <v>6821188</v>
       </c>
       <c r="N4" t="n">
-        <v>2394</v>
+        <v>16479</v>
       </c>
       <c r="O4" t="n">
-        <v>34583</v>
+        <v>79351</v>
       </c>
       <c r="P4" t="n">
-        <v>113343</v>
+        <v>7056</v>
       </c>
       <c r="Q4" t="n">
-        <v>341068</v>
+        <v>899210</v>
       </c>
       <c r="R4" t="n">
-        <v>396712</v>
+        <v>679276</v>
       </c>
       <c r="S4" t="n">
-        <v>9724605</v>
+        <v>17569795</v>
       </c>
       <c r="T4" t="n">
-        <v>4466064</v>
+        <v>7478420</v>
       </c>
       <c r="U4" t="n">
-        <v>5525321</v>
+        <v>9645337</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>2011年</t>
+          <t>2013年</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2526131</v>
+        <v>3222778</v>
       </c>
       <c r="C5" t="n">
-        <v>60386</v>
+        <v>94743</v>
       </c>
       <c r="D5" t="n">
-        <v>955324</v>
+        <v>738440</v>
       </c>
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="n">
-        <v>341664</v>
+        <v>717912</v>
       </c>
       <c r="G5" t="n">
-        <v>2696443</v>
+        <v>4197684</v>
       </c>
       <c r="H5" t="n">
-        <v>1715</v>
+        <v>6484</v>
       </c>
       <c r="I5" t="n">
-        <v>161558</v>
+        <v>768855</v>
       </c>
       <c r="J5" t="n">
-        <v>805110</v>
+        <v>1944574</v>
       </c>
       <c r="K5" t="n">
-        <v>42478067</v>
+        <v>66047840</v>
       </c>
       <c r="L5" t="n">
-        <v>898616</v>
+        <v>1542126</v>
       </c>
       <c r="M5" t="n">
-        <v>4909363</v>
+        <v>8764768</v>
       </c>
       <c r="N5" t="n">
-        <v>6657</v>
+        <v>20105</v>
       </c>
       <c r="O5" t="n">
-        <v>54142</v>
+        <v>110067</v>
       </c>
       <c r="P5" t="n">
-        <v>240196</v>
+        <v>34242</v>
       </c>
       <c r="Q5" t="n">
-        <v>714056</v>
+        <v>1119660</v>
       </c>
       <c r="R5" t="n">
-        <v>438838</v>
+        <v>866973</v>
       </c>
       <c r="S5" t="n">
-        <v>14229002</v>
+        <v>19573354</v>
       </c>
       <c r="T5" t="n">
-        <v>6699537</v>
+        <v>10617092</v>
       </c>
       <c r="U5" t="n">
-        <v>6739329</v>
+        <v>11707983</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2012年</t>
+          <t>2014年</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2922653</v>
+        <v>3468163</v>
       </c>
       <c r="C6" t="n">
-        <v>76327</v>
+        <v>130704</v>
       </c>
       <c r="D6" t="n">
-        <v>481971</v>
+        <v>1232599</v>
       </c>
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="n">
-        <v>496443</v>
+        <v>969179</v>
       </c>
       <c r="G6" t="n">
-        <v>3414007</v>
+        <v>5235194</v>
       </c>
       <c r="H6" t="n">
-        <v>4676</v>
+        <v>23060</v>
       </c>
       <c r="I6" t="n">
-        <v>358124</v>
+        <v>904271</v>
       </c>
       <c r="J6" t="n">
-        <v>1285604</v>
+        <v>2258325</v>
       </c>
       <c r="K6" t="n">
-        <v>53194058</v>
+        <v>88264242</v>
       </c>
       <c r="L6" t="n">
-        <v>958141</v>
+        <v>2464903</v>
       </c>
       <c r="M6" t="n">
-        <v>6821188</v>
+        <v>10295680</v>
       </c>
       <c r="N6" t="n">
-        <v>16479</v>
+        <v>18464</v>
       </c>
       <c r="O6" t="n">
-        <v>79351</v>
+        <v>159522</v>
       </c>
       <c r="P6" t="n">
-        <v>7056</v>
+        <v>133365</v>
       </c>
       <c r="Q6" t="n">
-        <v>899210</v>
+        <v>1504089</v>
       </c>
       <c r="R6" t="n">
-        <v>679276</v>
+        <v>1087324</v>
       </c>
       <c r="S6" t="n">
-        <v>17569795</v>
+        <v>32244391</v>
       </c>
       <c r="T6" t="n">
-        <v>7478420</v>
+        <v>12372524</v>
       </c>
       <c r="U6" t="n">
-        <v>9645337</v>
+        <v>13762485</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>2013年</t>
+          <t>2015年</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3222778</v>
+        <v>3990551.7093</v>
       </c>
       <c r="C7" t="n">
-        <v>94743</v>
+        <v>223334.0159</v>
       </c>
       <c r="D7" t="n">
-        <v>738440</v>
-      </c>
-      <c r="E7" t="inlineStr"/>
+        <v>2092752.029</v>
+      </c>
+      <c r="E7" t="n">
+        <v>160</v>
+      </c>
       <c r="F7" t="n">
-        <v>717912</v>
+        <v>1147580.3856</v>
       </c>
       <c r="G7" t="n">
-        <v>4197684</v>
+        <v>7852825.5129</v>
       </c>
       <c r="H7" t="n">
-        <v>6484</v>
+        <v>17535.7067</v>
       </c>
       <c r="I7" t="n">
-        <v>768855</v>
+        <v>1427660.1434</v>
       </c>
       <c r="J7" t="n">
-        <v>1944574</v>
+        <v>2712411.699</v>
       </c>
       <c r="K7" t="n">
-        <v>66047840</v>
+        <v>109786459</v>
       </c>
       <c r="L7" t="n">
-        <v>1542126</v>
+        <v>3349305.2059</v>
       </c>
       <c r="M7" t="n">
-        <v>8764768</v>
+        <v>12194085.7362</v>
       </c>
       <c r="N7" t="n">
-        <v>20105</v>
+        <v>28661.5528</v>
       </c>
       <c r="O7" t="n">
-        <v>110067</v>
+        <v>325097.8435</v>
       </c>
       <c r="P7" t="n">
-        <v>34242</v>
+        <v>254191.4738</v>
       </c>
       <c r="Q7" t="n">
-        <v>1119660</v>
+        <v>1566310.3643</v>
       </c>
       <c r="R7" t="n">
-        <v>866973</v>
+        <v>1443082.8078</v>
       </c>
       <c r="S7" t="n">
-        <v>19573354</v>
+        <v>40956771.3065</v>
       </c>
       <c r="T7" t="n">
-        <v>10617092</v>
+        <v>14238131.1533</v>
       </c>
       <c r="U7" t="n">
-        <v>11707983</v>
+        <v>15966010</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>2014年</t>
+          <t>2016年</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3468163</v>
+        <v>4142202</v>
       </c>
       <c r="C8" t="n">
-        <v>130704</v>
+        <v>419407</v>
       </c>
       <c r="D8" t="n">
-        <v>1232599</v>
+        <v>6480151</v>
       </c>
       <c r="E8" t="inlineStr"/>
       <c r="F8" t="n">
-        <v>969179</v>
+        <v>1488502</v>
       </c>
       <c r="G8" t="n">
-        <v>5235194</v>
+        <v>10811271</v>
       </c>
       <c r="H8" t="n">
-        <v>23060</v>
+        <v>92137</v>
       </c>
       <c r="I8" t="n">
-        <v>904271</v>
+        <v>1690188</v>
       </c>
       <c r="J8" t="n">
-        <v>2258325</v>
+        <v>3241975</v>
       </c>
       <c r="K8" t="n">
-        <v>88264242</v>
+        <v>135739045</v>
       </c>
       <c r="L8" t="n">
-        <v>2464903</v>
+        <v>4610471</v>
       </c>
       <c r="M8" t="n">
-        <v>10295680</v>
+        <v>16916820</v>
       </c>
       <c r="N8" t="n">
-        <v>18464</v>
+        <v>72372</v>
       </c>
       <c r="O8" t="n">
-        <v>159522</v>
+        <v>791284</v>
       </c>
       <c r="P8" t="n">
-        <v>133365</v>
+        <v>357469</v>
       </c>
       <c r="Q8" t="n">
-        <v>1504089</v>
+        <v>2282141</v>
       </c>
       <c r="R8" t="n">
-        <v>1087324</v>
+        <v>1972019</v>
       </c>
       <c r="S8" t="n">
-        <v>32244391</v>
+        <v>47399432</v>
       </c>
       <c r="T8" t="n">
-        <v>12372524</v>
+        <v>15236959</v>
       </c>
       <c r="U8" t="n">
-        <v>13762485</v>
+        <v>17734245</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>2015年</t>
+          <t>2017年</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>3990551.7093</v>
+        <v>5476795</v>
       </c>
       <c r="C9" t="n">
-        <v>223334.0159</v>
+        <v>351305</v>
       </c>
       <c r="D9" t="n">
-        <v>2092752.029</v>
-      </c>
-      <c r="E9" t="n">
-        <v>160</v>
-      </c>
+        <v>21889737</v>
+      </c>
+      <c r="E9" t="inlineStr"/>
       <c r="F9" t="n">
-        <v>1147580.3856</v>
+        <v>1656194</v>
       </c>
       <c r="G9" t="n">
-        <v>7852825.5129</v>
+        <v>14030075</v>
       </c>
       <c r="H9" t="n">
-        <v>17535.7067</v>
+        <v>138880</v>
       </c>
       <c r="I9" t="n">
-        <v>1427660.1434</v>
+        <v>1901733</v>
       </c>
       <c r="J9" t="n">
-        <v>2712411.699</v>
+        <v>3770399</v>
       </c>
       <c r="K9" t="n">
-        <v>109786459</v>
+        <v>180903652</v>
       </c>
       <c r="L9" t="n">
-        <v>3349305.2059</v>
+        <v>5375505</v>
       </c>
       <c r="M9" t="n">
-        <v>12194085.7362</v>
+        <v>22642713</v>
       </c>
       <c r="N9" t="n">
-        <v>28661.5528</v>
+        <v>328616</v>
       </c>
       <c r="O9" t="n">
-        <v>325097.8435</v>
+        <v>811536</v>
       </c>
       <c r="P9" t="n">
-        <v>254191.4738</v>
+        <v>238996</v>
       </c>
       <c r="Q9" t="n">
-        <v>1566310.3643</v>
+        <v>2499090</v>
       </c>
       <c r="R9" t="n">
-        <v>1443082.8078</v>
+        <v>2168399</v>
       </c>
       <c r="S9" t="n">
-        <v>40956771.3065</v>
+        <v>61577349</v>
       </c>
       <c r="T9" t="n">
-        <v>14238131.1533</v>
+        <v>15767026</v>
       </c>
       <c r="U9" t="n">
-        <v>15966010</v>
+        <v>20279304</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>2016年</t>
+          <t>2018年</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4142202</v>
+        <v>6650033.12</v>
       </c>
       <c r="C10" t="n">
-        <v>419407</v>
+        <v>440433.93</v>
       </c>
       <c r="D10" t="n">
-        <v>6480151</v>
+        <v>19357456.46</v>
       </c>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="n">
-        <v>1488502</v>
+        <v>1877317.69</v>
       </c>
       <c r="G10" t="n">
-        <v>10811271</v>
+        <v>18230587.92</v>
       </c>
       <c r="H10" t="n">
-        <v>92137</v>
+        <v>299696.52</v>
       </c>
       <c r="I10" t="n">
-        <v>1690188</v>
+        <v>1671529.39</v>
       </c>
       <c r="J10" t="n">
-        <v>3241975</v>
+        <v>4163228.56</v>
       </c>
       <c r="K10" t="n">
-        <v>135739045</v>
+        <v>198226585.313849</v>
       </c>
       <c r="L10" t="n">
-        <v>4610471</v>
+        <v>5734095.68</v>
       </c>
       <c r="M10" t="n">
-        <v>16916820</v>
+        <v>23269268.46</v>
       </c>
       <c r="N10" t="n">
-        <v>72372</v>
+        <v>476111.42</v>
       </c>
       <c r="O10" t="n">
-        <v>791284</v>
+        <v>1265599.43</v>
       </c>
       <c r="P10" t="n">
-        <v>357469</v>
+        <v>313108.3</v>
       </c>
       <c r="Q10" t="n">
-        <v>2282141</v>
+        <v>3369470.76</v>
       </c>
       <c r="R10" t="n">
-        <v>1972019</v>
+        <v>4424564.3</v>
       </c>
       <c r="S10" t="n">
-        <v>47399432</v>
+        <v>67546457.84999999</v>
       </c>
       <c r="T10" t="n">
-        <v>15236959</v>
+        <v>17348081.18</v>
       </c>
       <c r="U10" t="n">
-        <v>17734245</v>
+        <v>21789544.343849</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>2017年</t>
+          <t>2019年</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>5476795</v>
+        <v>7653356.32</v>
       </c>
       <c r="C11" t="n">
-        <v>351305</v>
+        <v>492024.6</v>
       </c>
       <c r="D11" t="n">
-        <v>21889737</v>
+        <v>20220605.27</v>
       </c>
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="n">
-        <v>1656194</v>
+        <v>1966892.44</v>
       </c>
       <c r="G11" t="n">
-        <v>14030075</v>
+        <v>20013570</v>
       </c>
       <c r="H11" t="n">
-        <v>138880</v>
+        <v>312690.75</v>
       </c>
       <c r="I11" t="n">
-        <v>1901733</v>
+        <v>1360344</v>
       </c>
       <c r="J11" t="n">
-        <v>3770399</v>
+        <v>4223026.73</v>
       </c>
       <c r="K11" t="n">
-        <v>180903652</v>
+        <v>219888069</v>
       </c>
       <c r="L11" t="n">
-        <v>5375505</v>
+        <v>7761139.31</v>
       </c>
       <c r="M11" t="n">
-        <v>22642713</v>
+        <v>29553871</v>
       </c>
       <c r="N11" t="n">
-        <v>328616</v>
+        <v>429261.39</v>
       </c>
       <c r="O11" t="n">
-        <v>811536</v>
+        <v>1262670.73</v>
       </c>
       <c r="P11" t="n">
-        <v>238996</v>
+        <v>330059.84</v>
       </c>
       <c r="Q11" t="n">
-        <v>2499090</v>
+        <v>3306116.61</v>
       </c>
       <c r="R11" t="n">
-        <v>2168399</v>
+        <v>4600990.97</v>
       </c>
       <c r="S11" t="n">
-        <v>61577349</v>
+        <v>73408168</v>
       </c>
       <c r="T11" t="n">
-        <v>15767026</v>
+        <v>17539839</v>
       </c>
       <c r="U11" t="n">
-        <v>20279304</v>
+        <v>25453442.484741</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>2018年</t>
+          <t>2020年</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6650033.12</v>
+        <v>8077557.71</v>
       </c>
       <c r="C12" t="n">
-        <v>440433.93</v>
+        <v>492645.83</v>
       </c>
       <c r="D12" t="n">
-        <v>19357456.46</v>
+        <v>29791381.92</v>
       </c>
       <c r="E12" t="inlineStr"/>
       <c r="F12" t="n">
-        <v>1877317.69</v>
+        <v>1943495.16</v>
       </c>
       <c r="G12" t="n">
-        <v>18230587.92</v>
+        <v>27786852.8</v>
       </c>
       <c r="H12" t="n">
-        <v>299696.52</v>
+        <v>396515.87</v>
       </c>
       <c r="I12" t="n">
-        <v>1671529.39</v>
+        <v>1354133.19</v>
       </c>
       <c r="J12" t="n">
-        <v>4163228.56</v>
+        <v>5079699.45</v>
       </c>
       <c r="K12" t="n">
-        <v>198226585.313849</v>
+        <v>258065844.306396</v>
       </c>
       <c r="L12" t="n">
-        <v>5734095.68</v>
+        <v>8140790.7</v>
       </c>
       <c r="M12" t="n">
-        <v>23269268.46</v>
+        <v>34531558.37</v>
       </c>
       <c r="N12" t="n">
-        <v>476111.42</v>
+        <v>790279.73</v>
       </c>
       <c r="O12" t="n">
-        <v>1265599.43</v>
+        <v>1269642.45</v>
       </c>
       <c r="P12" t="n">
-        <v>313108.3</v>
+        <v>357105.76</v>
       </c>
       <c r="Q12" t="n">
-        <v>3369470.76</v>
+        <v>4237947.37</v>
       </c>
       <c r="R12" t="n">
-        <v>4424564.3</v>
+        <v>6057966.39</v>
       </c>
       <c r="S12" t="n">
-        <v>67546457.84999999</v>
+        <v>83164214.38</v>
       </c>
       <c r="T12" t="n">
-        <v>17348081.18</v>
+        <v>17587884.12</v>
       </c>
       <c r="U12" t="n">
-        <v>21789544.343849</v>
+        <v>27006173.106396</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>2019年</t>
+          <t>2021年</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>7653356.32</v>
+        <v>9172268</v>
       </c>
       <c r="C13" t="n">
-        <v>492024.6</v>
+        <v>491036</v>
       </c>
       <c r="D13" t="n">
-        <v>20220605.27</v>
+        <v>16022746</v>
       </c>
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="n">
-        <v>1966892.44</v>
+        <v>1881576</v>
       </c>
       <c r="G13" t="n">
-        <v>20013570</v>
+        <v>26326333</v>
       </c>
       <c r="H13" t="n">
-        <v>312690.75</v>
+        <v>376709</v>
       </c>
       <c r="I13" t="n">
-        <v>1360344</v>
+        <v>1460781</v>
       </c>
       <c r="J13" t="n">
-        <v>4223026.73</v>
+        <v>5507313</v>
       </c>
       <c r="K13" t="n">
-        <v>219888069</v>
+        <v>278514971</v>
       </c>
       <c r="L13" t="n">
-        <v>7761139.31</v>
+        <v>9291631</v>
       </c>
       <c r="M13" t="n">
-        <v>29553871</v>
+        <v>36958161</v>
       </c>
       <c r="N13" t="n">
-        <v>429261.39</v>
+        <v>273111</v>
       </c>
       <c r="O13" t="n">
-        <v>1262670.73</v>
+        <v>1201556</v>
       </c>
       <c r="P13" t="n">
-        <v>330059.84</v>
+        <v>285419</v>
       </c>
       <c r="Q13" t="n">
-        <v>3306116.61</v>
+        <v>5049240</v>
       </c>
       <c r="R13" t="n">
-        <v>4600990.97</v>
+        <v>4507518</v>
       </c>
       <c r="S13" t="n">
-        <v>73408168</v>
+        <v>111523784</v>
       </c>
       <c r="T13" t="n">
-        <v>17539839</v>
+        <v>18150765</v>
       </c>
       <c r="U13" t="n">
-        <v>25453442.484741</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>2020年</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>8077557.71</v>
-      </c>
-      <c r="C14" t="n">
-        <v>492645.83</v>
-      </c>
-      <c r="D14" t="n">
-        <v>29791381.92</v>
-      </c>
-      <c r="E14" t="inlineStr"/>
-      <c r="F14" t="n">
-        <v>1943495.16</v>
-      </c>
-      <c r="G14" t="n">
-        <v>27786852.8</v>
-      </c>
-      <c r="H14" t="n">
-        <v>396515.87</v>
-      </c>
-      <c r="I14" t="n">
-        <v>1354133.19</v>
-      </c>
-      <c r="J14" t="n">
-        <v>5079699.45</v>
-      </c>
-      <c r="K14" t="n">
-        <v>258065844.306396</v>
-      </c>
-      <c r="L14" t="n">
-        <v>8140790.7</v>
-      </c>
-      <c r="M14" t="n">
-        <v>34531558.37</v>
-      </c>
-      <c r="N14" t="n">
-        <v>790279.73</v>
-      </c>
-      <c r="O14" t="n">
-        <v>1269642.45</v>
-      </c>
-      <c r="P14" t="n">
-        <v>357105.76</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>4237947.37</v>
-      </c>
-      <c r="R14" t="n">
-        <v>6057966.39</v>
-      </c>
-      <c r="S14" t="n">
-        <v>83164214.38</v>
-      </c>
-      <c r="T14" t="n">
-        <v>17587884.12</v>
-      </c>
-      <c r="U14" t="n">
-        <v>27006173.106396</v>
+        <v>30035025</v>
       </c>
     </row>
   </sheetData>
